--- a/tests/data/Reader/XLSX/propertyTest.xlsx
+++ b/tests/data/Reader/XLSX/propertyTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PHPOffice\PHPSpreadsheet\develop\tests\data\Reader\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4C8E5-3269-432C-81AB-76780C7BF0F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA9841-FD8B-4EF1-B992-961BF4EDBD01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5123" yWindow="765" windowWidth="22830" windowHeight="13237" xr2:uid="{092D7D54-20EB-4539-B5E7-FCF9685480E7}"/>
   </bookViews>
